--- a/test/scripting/scriptingmemory/convosValueOptional/cases.xlsx
+++ b/test/scripting/scriptingmemory/convosValueOptional/cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Wiener Schnitzel</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>$customerName</t>
+  </si>
+  <si>
+    <t>$year</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -372,20 +375,26 @@
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
